--- a/설계 및 회의 자료/설계서.xlsx
+++ b/설계 및 회의 자료/설계서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shastra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F53BC50-A456-416B-AEBA-C8BA7EFF79F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{38BA41BA-BFCB-4EA9-B5D4-4CF10AA66A72}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15465" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="M" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="C" sheetId="3" r:id="rId3"/>
     <sheet name="논의사항" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="416">
   <si>
     <t>테이블</t>
   </si>
@@ -579,9 +578,6 @@
     <t>프로젝트 정보</t>
   </si>
   <si>
-    <t>에러발생시 안내할 수 있는 페이지</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - index.jsp (시작페이지)</t>
   </si>
   <si>
@@ -600,9 +596,6 @@
     <t xml:space="preserve"> - mypage.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve"> - error.jsp</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - category.jsp</t>
   </si>
   <si>
@@ -612,18 +605,9 @@
     <t xml:space="preserve"> - cart.jsp</t>
   </si>
   <si>
-    <t>컨트롤러 페이지</t>
-  </si>
-  <si>
-    <t>컨트롤러 전용 페이지</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - pay.jsp</t>
   </si>
   <si>
-    <t xml:space="preserve"> - controller.jsp</t>
-  </si>
-  <si>
     <t>메인으로 가주는 역할</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -644,14 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - header.jsp /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - footer.jsp / </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>controller.jsp?action=join</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -668,55 +644,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>클래스 속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id속성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자바빈즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuserVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troomVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbookVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twishVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>treviewVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tuserDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbookDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treviewDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>troomDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>twishDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -938,13 +866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - index.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(시작페이지)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - 회원정보수정버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,18 +1374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>treplyVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treplyDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treviewSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1538,13 +1447,188 @@
   </si>
   <si>
     <t>숙소종류(일단은 호텔만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 회원가입은 헤더 푸터 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색결과화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - searchkeyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - header.tag /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - footer.tag / </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuserInsertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tinterface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TActionForward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인코딩용 필터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFrontController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Troom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuserSelectOneAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuserUpdateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroomSelectAllAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroomSelectOneAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroomInsertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TroomUpdateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbookSelectAllAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbookInsertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbookUpdateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwishSelectAllAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwishInsertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TwishDeleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreviewInsertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreviewSelectAllAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreviewSelectOneAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreviewUpdateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreviewDeleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Treply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreplyInsertAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreplyUpdateAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreplyDeleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreplySelectAllAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TbookDeleteAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(패키지 이름)</t>
+  </si>
+  <si>
+    <t>ver0825</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1587,7 +1671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1618,6 +1702,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1636,7 +1726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1682,6 +1772,36 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1696,9 +1816,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2014,31 +2131,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{014ACD44-490D-4481-9C2E-9B65BCBB032F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.9140625" customWidth="1"/>
+    <col min="7" max="7" width="18.875" customWidth="1"/>
     <col min="8" max="8" width="57.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -2049,10 +2166,10 @@
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -2066,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>6</v>
       </c>
@@ -2080,10 +2197,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>8</v>
       </c>
@@ -2094,10 +2211,10 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -2105,16 +2222,16 @@
         <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="G6" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -2125,10 +2242,10 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>14</v>
       </c>
@@ -2136,13 +2253,13 @@
         <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>15</v>
       </c>
@@ -2153,27 +2270,27 @@
         <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="G10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -2184,17 +2301,17 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D12" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>66</v>
       </c>
@@ -2202,16 +2319,16 @@
         <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="H13" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>18</v>
       </c>
@@ -2219,13 +2336,13 @@
         <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>19</v>
       </c>
@@ -2233,13 +2350,13 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="G15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="7" t="s">
         <v>20</v>
       </c>
@@ -2247,23 +2364,23 @@
         <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H16" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D17" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +2388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>23</v>
       </c>
@@ -2282,44 +2399,44 @@
         <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="E20" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="F20" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="G20" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="E21" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="F21" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="G21" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>25</v>
       </c>
@@ -2327,16 +2444,16 @@
         <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H22" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>27</v>
       </c>
@@ -2347,13 +2464,13 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>29</v>
       </c>
@@ -2361,64 +2478,64 @@
         <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G24" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H24" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E25" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="F25" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="G25" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
         <v>56</v>
       </c>
       <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="G26" t="s">
         <v>296</v>
       </c>
-      <c r="G26" t="s">
-        <v>317</v>
-      </c>
       <c r="H26" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="E27" t="s">
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="G27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>36</v>
       </c>
@@ -2430,10 +2547,10 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D29" s="1" t="s">
         <v>38</v>
       </c>
@@ -2445,20 +2562,20 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D30" s="18" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="15"/>
       <c r="G30">
         <v>20220825</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -2466,7 +2583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>33</v>
       </c>
@@ -2474,13 +2591,13 @@
         <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="G33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>4</v>
       </c>
@@ -2491,13 +2608,13 @@
         <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H34" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>23</v>
       </c>
@@ -2508,13 +2625,13 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H35" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>40</v>
       </c>
@@ -2522,7 +2639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>42</v>
       </c>
@@ -2530,13 +2647,13 @@
         <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G38" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>4</v>
       </c>
@@ -2544,16 +2661,16 @@
         <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="G39" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>23</v>
       </c>
@@ -2564,20 +2681,20 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="C41" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D41" s="19"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" s="29"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>45</v>
       </c>
@@ -2585,7 +2702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>47</v>
       </c>
@@ -2593,13 +2710,13 @@
         <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>4</v>
       </c>
@@ -2610,13 +2727,13 @@
         <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>23</v>
       </c>
@@ -2627,13 +2744,13 @@
         <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>50</v>
       </c>
@@ -2644,13 +2761,13 @@
         <v>51</v>
       </c>
       <c r="G47" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.45">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>52</v>
       </c>
@@ -2658,91 +2775,91 @@
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="H48" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
-        <v>346</v>
-      </c>
-      <c r="C50" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D51" t="s">
-        <v>348</v>
       </c>
       <c r="E51" t="s">
         <v>56</v>
       </c>
       <c r="F51" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="G51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="E52" t="s">
         <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E53" t="s">
         <v>56</v>
       </c>
       <c r="F53" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="G53" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="H53" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="E54" t="s">
         <v>61</v>
       </c>
       <c r="F54" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="G54" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="D55" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D55" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -2750,23 +2867,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>67</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -2780,7 +2897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>63</v>
       </c>
@@ -2794,7 +2911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>63</v>
       </c>
@@ -2808,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -2822,7 +2939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>63</v>
       </c>
@@ -2836,7 +2953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>63</v>
       </c>
@@ -2850,7 +2967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>63</v>
       </c>
@@ -2864,21 +2981,21 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>63</v>
       </c>
@@ -2892,7 +3009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>63</v>
       </c>
@@ -2903,10 +3020,10 @@
         <v>56</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>63</v>
       </c>
@@ -2917,10 +3034,10 @@
         <v>64</v>
       </c>
       <c r="E70" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>63</v>
       </c>
@@ -2931,10 +3048,10 @@
         <v>64</v>
       </c>
       <c r="E71" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>63</v>
       </c>
@@ -2945,16 +3062,16 @@
         <v>64</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>63</v>
       </c>
@@ -2968,35 +3085,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D75" t="s">
         <v>64</v>
       </c>
       <c r="E75" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D76" t="s">
         <v>64</v>
       </c>
       <c r="E76" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>63</v>
       </c>
@@ -3010,7 +3127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>63</v>
       </c>
@@ -3024,7 +3141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>63</v>
       </c>
@@ -3035,24 +3152,24 @@
         <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>63</v>
       </c>
       <c r="C80" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D80" t="s">
         <v>64</v>
       </c>
       <c r="E80" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>63</v>
       </c>
@@ -3063,24 +3180,24 @@
         <v>56</v>
       </c>
       <c r="E81" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>63</v>
       </c>
       <c r="C82" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D82" t="s">
         <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>63</v>
       </c>
@@ -3094,7 +3211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>63</v>
       </c>
@@ -3108,18 +3225,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>63</v>
       </c>
@@ -3130,10 +3247,10 @@
         <v>56</v>
       </c>
       <c r="E88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>63</v>
       </c>
@@ -3147,7 +3264,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>63</v>
       </c>
@@ -3161,12 +3278,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
         <v>63</v>
       </c>
@@ -3177,10 +3294,10 @@
         <v>56</v>
       </c>
       <c r="E92" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
         <v>63</v>
       </c>
@@ -3194,7 +3311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
         <v>63</v>
       </c>
@@ -3208,12 +3325,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
         <v>63</v>
       </c>
@@ -3224,10 +3341,10 @@
         <v>56</v>
       </c>
       <c r="E96" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
         <v>63</v>
       </c>
@@ -3241,7 +3358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
         <v>63</v>
       </c>
@@ -3255,7 +3372,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
         <v>63</v>
       </c>
@@ -3269,7 +3386,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
         <v>63</v>
       </c>
@@ -3280,117 +3397,117 @@
         <v>64</v>
       </c>
       <c r="E100" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>63</v>
       </c>
       <c r="C102" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D102" t="s">
         <v>56</v>
       </c>
       <c r="E102" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D103" t="s">
         <v>56</v>
       </c>
       <c r="E103" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
         <v>56</v>
       </c>
       <c r="E104" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D105" t="s">
         <v>64</v>
       </c>
       <c r="E105" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="B106" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
         <v>73</v>
       </c>
       <c r="E107" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
         <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="E108" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
         <v>80</v>
       </c>
@@ -3400,16 +3517,16 @@
       <c r="D112" t="s">
         <v>81</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E112" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15" t="s">
+      <c r="F112" s="25"/>
+      <c r="G112" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H112" s="15"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H112" s="25"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
         <v>80</v>
       </c>
@@ -3419,16 +3536,16 @@
       <c r="D113" t="s">
         <v>84</v>
       </c>
-      <c r="E113" s="15" t="s">
+      <c r="E113" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15" t="s">
+      <c r="F113" s="25"/>
+      <c r="G113" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="H113" s="15"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H113" s="25"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>80</v>
       </c>
@@ -3438,16 +3555,16 @@
       <c r="D114" t="s">
         <v>85</v>
       </c>
-      <c r="E114" s="15" t="s">
+      <c r="E114" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15" t="s">
+      <c r="F114" s="25"/>
+      <c r="G114" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H114" s="15"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H114" s="25"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
         <v>80</v>
       </c>
@@ -3457,20 +3574,20 @@
       <c r="D115" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="F115" s="16"/>
+      <c r="F115" s="26"/>
       <c r="G115" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
         <v>80</v>
       </c>
@@ -3480,16 +3597,16 @@
       <c r="D117" t="s">
         <v>91</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15" t="s">
+      <c r="F117" s="25"/>
+      <c r="G117" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="H117" s="15"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H117" s="25"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>80</v>
       </c>
@@ -3499,16 +3616,16 @@
       <c r="D118" t="s">
         <v>92</v>
       </c>
-      <c r="E118" s="15" t="s">
+      <c r="E118" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15" t="s">
+      <c r="F118" s="25"/>
+      <c r="G118" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H118" s="15"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H118" s="25"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>80</v>
       </c>
@@ -3518,16 +3635,16 @@
       <c r="D119" t="s">
         <v>89</v>
       </c>
-      <c r="E119" s="15" t="s">
+      <c r="E119" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15" t="s">
+      <c r="F119" s="25"/>
+      <c r="G119" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="H119" s="15"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H119" s="25"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>80</v>
       </c>
@@ -3537,16 +3654,16 @@
       <c r="D120" t="s">
         <v>90</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="E120" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15" t="s">
+      <c r="F120" s="25"/>
+      <c r="G120" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="H120" s="15"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H120" s="25"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
         <v>80</v>
       </c>
@@ -3556,23 +3673,23 @@
       <c r="D121" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="H121" s="16"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F121" s="26"/>
+      <c r="G121" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="H121" s="26"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>77</v>
       </c>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>80</v>
       </c>
@@ -3582,17 +3699,17 @@
       <c r="D123" t="s">
         <v>98</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E123" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="F123" s="15"/>
+      <c r="F123" s="25"/>
       <c r="G123" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>80</v>
@@ -3603,16 +3720,16 @@
       <c r="D124" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F124" s="17"/>
+      <c r="F124" s="27"/>
       <c r="G124" s="14" t="s">
         <v>138</v>
       </c>
       <c r="H124" s="12"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
         <v>80</v>
       </c>
@@ -3622,16 +3739,16 @@
       <c r="D125" t="s">
         <v>100</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15" t="s">
+      <c r="F125" s="25"/>
+      <c r="G125" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H125" s="15"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H125" s="25"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
         <v>80</v>
       </c>
@@ -3641,16 +3758,16 @@
       <c r="D126" t="s">
         <v>101</v>
       </c>
-      <c r="E126" s="15" t="s">
+      <c r="E126" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15" t="s">
+      <c r="F126" s="25"/>
+      <c r="G126" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="H126" s="15"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H126" s="25"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>80</v>
       </c>
@@ -3660,23 +3777,23 @@
       <c r="D127" t="s">
         <v>102</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E127" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15" t="s">
+      <c r="F127" s="25"/>
+      <c r="G127" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H127" s="15"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H127" s="25"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>78</v>
       </c>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
         <v>80</v>
       </c>
@@ -3686,16 +3803,16 @@
       <c r="D129" t="s">
         <v>107</v>
       </c>
-      <c r="E129" s="15" t="s">
+      <c r="E129" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15" t="s">
+      <c r="F129" s="25"/>
+      <c r="G129" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H129" s="15"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H129" s="25"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
         <v>80</v>
       </c>
@@ -3705,15 +3822,15 @@
       <c r="D130" t="s">
         <v>108</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="E130" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F130" s="15"/>
+      <c r="F130" s="25"/>
       <c r="G130" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
         <v>80</v>
       </c>
@@ -3723,22 +3840,22 @@
       <c r="D131" t="s">
         <v>109</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="E131" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F131" s="15"/>
+      <c r="F131" s="25"/>
       <c r="G131" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>79</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
         <v>80</v>
       </c>
@@ -3748,33 +3865,33 @@
       <c r="D133" t="s">
         <v>117</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="E133" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15" t="s">
+      <c r="F133" s="25"/>
+      <c r="G133" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H133" s="15"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H133" s="25"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
         <v>80</v>
       </c>
       <c r="C134" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D134" t="s">
         <v>120</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="E134" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
         <v>80</v>
       </c>
@@ -3784,16 +3901,16 @@
       <c r="D135" t="s">
         <v>121</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15" t="s">
+      <c r="F135" s="25"/>
+      <c r="G135" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H135" s="15"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H135" s="25"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
         <v>80</v>
       </c>
@@ -3803,16 +3920,16 @@
       <c r="D136" t="s">
         <v>125</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="E136" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15" t="s">
+      <c r="F136" s="25"/>
+      <c r="G136" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H136" s="15"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H136" s="25"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>80</v>
       </c>
@@ -3822,23 +3939,23 @@
       <c r="D137" t="s">
         <v>126</v>
       </c>
-      <c r="E137" s="15" t="s">
+      <c r="E137" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15" t="s">
+      <c r="F137" s="25"/>
+      <c r="G137" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="H137" s="15"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H137" s="25"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>80</v>
       </c>
@@ -3846,13 +3963,13 @@
         <v>83</v>
       </c>
       <c r="D139" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E139" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>80</v>
       </c>
@@ -3860,13 +3977,13 @@
         <v>83</v>
       </c>
       <c r="D140" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E140" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>80</v>
       </c>
@@ -3874,27 +3991,27 @@
         <v>83</v>
       </c>
       <c r="D141" t="s">
-        <v>364</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="F141" s="15"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F141" s="25"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>80</v>
       </c>
       <c r="C142" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="D142" t="s">
-        <v>366</v>
-      </c>
-      <c r="E142" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F142" s="15"/>
+      <c r="F142" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -3954,165 +4071,165 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF4B0EB-4CDF-4A88-9D8A-209F88D80D48}">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.9140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="10" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>151</v>
       </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>152</v>
-      </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>148</v>
       </c>
@@ -4120,634 +4237,833 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="C37" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="C16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D37" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>218</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+      <c r="E38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>156</v>
       </c>
-      <c r="C24" t="s">
-        <v>227</v>
-      </c>
-      <c r="D24" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
+      <c r="C40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" t="s">
-        <v>243</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>228</v>
-      </c>
-      <c r="D27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>241</v>
-      </c>
-      <c r="D28" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" t="s">
-        <v>243</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>248</v>
-      </c>
-      <c r="D32" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C38" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E38" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B39" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>158</v>
       </c>
-      <c r="C39" t="s">
-        <v>278</v>
-      </c>
-      <c r="D39" t="s">
-        <v>277</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B40" t="s">
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>159</v>
       </c>
-      <c r="C40" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="C41" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
-        <v>281</v>
-      </c>
-      <c r="D42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B43" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1" t="s">
+      <c r="C53" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" t="s">
         <v>285</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>291</v>
-      </c>
-      <c r="D46" t="s">
-        <v>288</v>
-      </c>
-      <c r="E46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B48" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C50" t="s">
-        <v>305</v>
-      </c>
-      <c r="D50" t="s">
-        <v>308</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>304</v>
-      </c>
-      <c r="D51" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" t="s">
-        <v>377</v>
-      </c>
-      <c r="D52" t="s">
-        <v>306</v>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B24:E24"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{65851996-A417-43F6-93CD-3A3B9AFEC241}"/>
+    <hyperlink ref="E15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5053852-ACA2-4576-8CA6-4B7628A066DD}">
-  <dimension ref="A2:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="84.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>178</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>384</v>
+      </c>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>386</v>
+      </c>
       <c r="B13" t="s">
-        <v>374</v>
-      </c>
-      <c r="C13" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+        <v>389</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+        <v>391</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
       <c r="B16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C20" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>376</v>
-      </c>
-      <c r="C22" t="s">
-        <v>368</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="23"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" t="s">
+        <v>411</v>
+      </c>
+      <c r="D36" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F245E18-EB29-4368-92A3-2F4FBC6D2450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
